--- a/자유수강권/미술(수강).xlsx
+++ b/자유수강권/미술(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="99">
   <si>
     <t>주야</t>
   </si>
@@ -70,6 +70,12 @@
     <t>박성준</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>이채윤</t>
+  </si>
+  <si>
     <t>2반</t>
   </si>
   <si>
@@ -97,9 +103,6 @@
     <t>이주희</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>조슬빈</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
     <t>이수민</t>
   </si>
   <si>
+    <t>이지현</t>
+  </si>
+  <si>
     <t>5반</t>
   </si>
   <si>
@@ -190,6 +196,9 @@
     <t>김지후</t>
   </si>
   <si>
+    <t>서소피아</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -227,6 +236,9 @@
   </si>
   <si>
     <t>이원희</t>
+  </si>
+  <si>
+    <t>권범수</t>
   </si>
   <si>
     <t>김경철</t>
@@ -667,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,7 +687,8 @@
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5">
@@ -790,13 +803,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -816,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -842,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
@@ -868,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
@@ -894,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -920,13 +933,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
@@ -946,13 +959,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -972,13 +985,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -998,13 +1011,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
@@ -1024,10 +1037,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>38</v>
@@ -1050,10 +1063,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>39</v>
@@ -1076,10 +1089,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>40</v>
@@ -1102,13 +1115,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>13</v>
@@ -1128,13 +1141,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>13</v>
@@ -1154,13 +1167,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -1180,13 +1193,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
@@ -1206,10 +1219,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>49</v>
@@ -1232,13 +1245,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>13</v>
@@ -1258,13 +1271,13 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -1284,13 +1297,13 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1310,13 +1323,13 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1336,13 +1349,13 @@
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1362,13 +1375,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>13</v>
@@ -1385,16 +1398,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
@@ -1411,16 +1424,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -1437,16 +1450,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
@@ -1463,16 +1476,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -1489,16 +1502,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>13</v>
@@ -1515,13 +1528,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>68</v>
@@ -1541,16 +1554,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>13</v>
@@ -1567,16 +1580,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>13</v>
@@ -1593,16 +1606,16 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>13</v>
@@ -1619,16 +1632,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -1645,16 +1658,16 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>13</v>
@@ -1671,16 +1684,16 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>13</v>
@@ -1697,16 +1710,16 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>13</v>
@@ -1723,16 +1736,16 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>13</v>
@@ -1749,16 +1762,16 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>13</v>
@@ -1775,16 +1788,16 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>13</v>
@@ -1801,16 +1814,16 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>13</v>
@@ -1827,16 +1840,16 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
@@ -1853,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>87</v>
@@ -1879,13 +1892,13 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>88</v>
@@ -1905,16 +1918,16 @@
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>13</v>
@@ -1931,16 +1944,16 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>13</v>
@@ -1957,16 +1970,16 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>13</v>
@@ -1983,24 +1996,128 @@
         <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="13.5">
+      <c r="A52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="13.5">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="13.5">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="13.5">
+      <c r="A55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>13</v>
       </c>
     </row>
